--- a/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4994AB-F04A-437A-AA97-594240F2798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F584078-2169-404B-B0B0-039E13BBD0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -15635,40 +15635,42 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="AI1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="124" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="27" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="27" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="27" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="27" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="29" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="27" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="27" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="29" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="29" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="27" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="27" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="27" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="27" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="29" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="29" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="27" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="124" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="27" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="28" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="27" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="27" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="29" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="27" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="27" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="29" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="29" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="27" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="27" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="27" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="29" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="29" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="27" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="126" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="126" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
@@ -15721,7 +15723,7 @@
       </c>
       <c r="AM1" s="179"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
@@ -15868,7 +15870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
@@ -16025,7 +16027,7 @@
         <v>0.94866893302210198</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
@@ -16182,7 +16184,7 @@
         <v>0.92286814836732001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>0.75811726098251697</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
@@ -16494,7 +16496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
@@ -16651,7 +16653,7 @@
         <v>0.76116509330383497</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -16808,7 +16810,7 @@
         <v>0.84325397172528904</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
@@ -16963,7 +16965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>35</v>
       </c>
@@ -17168,52 +17170,54 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="36" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="36" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="39" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="36" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="36" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="36" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="36" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="36" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="36" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="39" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="39" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="39" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="36" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="36" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="36" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="39" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="39" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="39" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="36" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="36" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="36" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="39" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="39" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="39" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="36" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="36"/>
+    <col min="1" max="1" width="12.33203125" style="37" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="38" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="36" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="36" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="39" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="39" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="36" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="36" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="36" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="39" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="36" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="36" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="36" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="39" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="39" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="39" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="36" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="36" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="36" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="39" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="39" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="39" customWidth="1"/>
+    <col min="47" max="48" width="7.6640625" style="36" customWidth="1"/>
+    <col min="49" max="50" width="11.44140625" style="36" customWidth="1"/>
+    <col min="51" max="52" width="8.6640625" style="36" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" style="39" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="39" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="39" customWidth="1"/>
+    <col min="56" max="57" width="11.44140625" style="36" customWidth="1"/>
+    <col min="58" max="16384" width="13.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
@@ -17288,7 +17292,7 @@
       </c>
       <c r="BE1" s="179"/>
     </row>
-    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>38</v>
       </c>
@@ -17506,7 +17510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>26</v>
       </c>
@@ -17735,7 +17739,7 @@
         <v>0.94866893302210198</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>27</v>
       </c>
@@ -17964,7 +17968,7 @@
         <v>0.92286814836732001</v>
       </c>
     </row>
-    <row r="5" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>5</v>
       </c>
@@ -18193,7 +18197,7 @@
         <v>0.75811726098251697</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
         <v>6</v>
       </c>
@@ -18420,7 +18424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>4</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>0.76116509330383497</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>3</v>
       </c>
@@ -18878,7 +18882,7 @@
         <v>0.84325397172528904</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
         <v>42</v>
       </c>
@@ -19105,7 +19109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -19326,10 +19330,12 @@
         <v>p&lt;0.001</v>
       </c>
       <c r="BD10" s="25">
-        <v>0.57100300904639401</v>
+        <f>'B0 Mode'!AL10</f>
+        <v>0.17466812353421701</v>
       </c>
       <c r="BE10" s="25">
-        <v>0.57100300904639401</v>
+        <f>'B0 Mode'!AM10</f>
+        <v>0.75811726098251697</v>
       </c>
     </row>
   </sheetData>
@@ -19384,38 +19390,38 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="124" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="27" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="27" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="27" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="27" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="29" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="27" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="27" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="29" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="29" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="27" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="27" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="27" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="27" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="29" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="29" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="27" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="124" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="27" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="28" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="27" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="27" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="29" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="27" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="27" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="29" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="29" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="27" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="27" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="27" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="29" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="29" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="27" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>49</v>
       </c>
@@ -19468,7 +19474,7 @@
       </c>
       <c r="AM1" s="179"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
@@ -19617,7 +19623,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
@@ -19774,7 +19780,7 @@
         <v>0.94866893302210198</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
@@ -19931,7 +19937,7 @@
         <v>0.92286814836732001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -20088,7 +20094,7 @@
         <v>0.75811726098251697</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
@@ -20245,7 +20251,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
@@ -20402,7 +20408,7 @@
         <v>0.76116509330383497</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -20559,7 +20565,7 @@
         <v>0.84325397172528904</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
@@ -20716,7 +20722,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>35</v>
       </c>
@@ -20921,54 +20927,54 @@
   </sheetPr>
   <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="36" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="36" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="39" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="36" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="36" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="36" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="36" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="36" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="36" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="39" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="39" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="39" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="36" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="36" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="36" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="39" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="39" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="39" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="36" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="36" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="36" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="39" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="39" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="39" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="36" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="36"/>
+    <col min="1" max="1" width="12.33203125" style="37" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="38" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="36" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="36" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="39" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="39" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="36" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="36" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="36" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="39" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="36" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="36" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="36" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="39" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="39" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="39" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="36" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="36" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="36" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="39" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="39" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="39" customWidth="1"/>
+    <col min="47" max="48" width="7.6640625" style="36" customWidth="1"/>
+    <col min="49" max="50" width="11.44140625" style="36" customWidth="1"/>
+    <col min="51" max="52" width="8.6640625" style="36" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" style="39" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="39" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="39" customWidth="1"/>
+    <col min="56" max="57" width="11.44140625" style="36" customWidth="1"/>
+    <col min="58" max="16384" width="13.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>49</v>
       </c>
@@ -21043,7 +21049,7 @@
       </c>
       <c r="BE1" s="179"/>
     </row>
-    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>38</v>
       </c>
@@ -21263,7 +21269,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>26</v>
       </c>
@@ -21492,7 +21498,7 @@
         <v>0.75811726098251697</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>27</v>
       </c>
@@ -21721,7 +21727,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>5</v>
       </c>
@@ -21950,7 +21956,7 @@
         <v>0.76116509330383497</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
         <v>6</v>
       </c>
@@ -22179,7 +22185,7 @@
         <v>0.84325397172528904</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>4</v>
       </c>
@@ -22408,7 +22414,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>3</v>
       </c>
@@ -22637,7 +22643,7 @@
         <v>0.75811726098251697</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
         <v>42</v>
       </c>
@@ -22866,7 +22872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -23095,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AR15" s="39" t="s">
         <v>58</v>
       </c>
@@ -23151,22 +23157,22 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" customWidth="1"/>
+    <col min="26" max="26" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="25:28" x14ac:dyDescent="0.3">
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>34</v>
       </c>
@@ -23186,43 +23192,43 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="160" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="160" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="161" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="161" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="161" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="159" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="159" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="153" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="153" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="161" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="161" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="159" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="159" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="159" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="153" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="161" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="161" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="161" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="161" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="161" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="161" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" style="154" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="154" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="154" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="161" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="161" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" style="161" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" style="154" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="154" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="154" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="154" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="154" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="153" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="159" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="153" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="154" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" style="153" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="159" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="159" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="153" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" style="153" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="153"/>
-    <col min="29" max="35" width="8.85546875" style="152"/>
-    <col min="36" max="36" width="2.85546875" style="152" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="153"/>
+    <col min="29" max="35" width="8.88671875" style="152"/>
+    <col min="36" max="36" width="2.88671875" style="152" customWidth="1"/>
     <col min="37" max="37" width="12" style="152" customWidth="1"/>
     <col min="38" max="38" width="13" style="152" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="152"/>
+    <col min="39" max="16384" width="8.88671875" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -23258,7 +23264,7 @@
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -23337,7 +23343,7 @@
       <c r="AB2" s="152"/>
       <c r="AC2" s="153"/>
     </row>
-    <row r="3" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="128" t="str">
         <f>RIGHT([7]LME_Phonetic_PA_l_t_b0!A2,3)</f>
         <v>MDC</v>
@@ -23436,7 +23442,7 @@
       </c>
       <c r="AC3" s="165"/>
     </row>
-    <row r="4" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="128" t="str">
         <f>RIGHT([7]LME_Phonetic_PA_l_t_b0!A3,3)</f>
         <v>MWH</v>
@@ -23535,7 +23541,7 @@
       </c>
       <c r="AC4" s="165"/>
     </row>
-    <row r="5" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="128" t="str">
         <f>RIGHT([7]LME_Phonetic_PA_l_t_b0!A4,3)</f>
         <v>MYN</v>
@@ -23634,7 +23640,7 @@
       </c>
       <c r="AC5" s="165"/>
     </row>
-    <row r="6" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="128" t="str">
         <f>RIGHT([7]LME_Phonetic_PA_l_t_b0!A5,3)</f>
         <v>MDQ</v>
@@ -23733,7 +23739,7 @@
       </c>
       <c r="AC6" s="165"/>
     </row>
-    <row r="7" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128" t="str">
         <f>A18</f>
         <v>L*H</v>
@@ -23832,7 +23838,7 @@
       </c>
       <c r="AC7" s="165"/>
     </row>
-    <row r="8" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="128" t="str">
         <f>A19</f>
         <v>^[L*]H</v>
@@ -23931,7 +23937,7 @@
       </c>
       <c r="AC8" s="165"/>
     </row>
-    <row r="9" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128" t="str">
         <f>A20</f>
         <v>L*^[H]</v>
@@ -24030,7 +24036,7 @@
       </c>
       <c r="AC9" s="165"/>
     </row>
-    <row r="10" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="138" t="str">
         <f>A21</f>
         <v>^[L*H]</v>
@@ -24129,7 +24135,7 @@
       </c>
       <c r="AC10" s="165"/>
     </row>
-    <row r="11" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="140"/>
       <c r="B11" s="141"/>
       <c r="C11" s="171"/>
@@ -24155,7 +24161,7 @@
       <c r="Y11" s="144"/>
       <c r="AC11" s="165"/>
     </row>
-    <row r="12" spans="1:29" s="8" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="8" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -24189,7 +24195,7 @@
       <c r="Y12" s="150"/>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -24266,7 +24272,7 @@
       </c>
       <c r="AC13" s="153"/>
     </row>
-    <row r="14" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A2,3)</f>
         <v>MDC</v>
@@ -24367,7 +24373,7 @@
       <c r="AB14" s="165"/>
       <c r="AC14" s="165"/>
     </row>
-    <row r="15" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A3,3)</f>
         <v>MWH</v>
@@ -24465,7 +24471,7 @@
         <v>10.204999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A4,3)</f>
         <v>MYN</v>
@@ -24563,7 +24569,7 @@
         <v>10.225000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A5,3)</f>
         <v>MDQ</v>
@@ -24661,7 +24667,7 @@
         <v>10.311999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A6,3)</f>
         <v>L*H</v>
@@ -24760,7 +24766,7 @@
         <v>10.206000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A7,6)</f>
         <v>^[L*]H</v>
@@ -24858,7 +24864,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="128" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A8,6)</f>
         <v>L*^[H]</v>
@@ -24956,7 +24962,7 @@
         <v>10.149000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="138" t="str">
         <f>RIGHT([9]LME_Phonetic_PA_h_t_b0!A9,6)</f>
         <v>^[L*H]</v>
@@ -25054,7 +25060,7 @@
         <v>9.7380000000000031</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="152"/>
       <c r="B22" s="152"/>
       <c r="C22" s="152"/>
@@ -25084,7 +25090,7 @@
       <c r="AA22" s="152"/>
       <c r="AB22" s="152"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="152"/>
       <c r="B23" s="152"/>
       <c r="C23" s="152"/>
@@ -25114,7 +25120,7 @@
       <c r="AA23" s="152"/>
       <c r="AB23" s="152"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="152"/>
       <c r="B24" s="152"/>
       <c r="C24" s="152"/>
@@ -25141,7 +25147,7 @@
       <c r="AA24" s="152"/>
       <c r="AB24" s="152"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="152"/>
       <c r="B25" s="152"/>
       <c r="C25" s="152"/>
@@ -25171,7 +25177,7 @@
       <c r="AA25" s="152"/>
       <c r="AB25" s="152"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="152"/>
       <c r="B26" s="152"/>
       <c r="C26" s="152"/>
@@ -25201,7 +25207,7 @@
       <c r="AA26" s="152"/>
       <c r="AB26" s="152"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="152"/>
       <c r="B27" s="152"/>
       <c r="C27" s="152"/>
@@ -25231,7 +25237,7 @@
       <c r="AA27" s="152"/>
       <c r="AB27" s="152"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I28" s="161"/>
       <c r="J28" s="161"/>
       <c r="N28" s="154"/>
@@ -25243,7 +25249,7 @@
       <c r="AA28" s="152"/>
       <c r="AB28" s="152"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I29" s="161"/>
       <c r="J29" s="161"/>
       <c r="N29" s="154"/>
@@ -25255,11 +25261,11 @@
       <c r="AA29" s="152"/>
       <c r="AB29" s="152"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D30" s="152"/>
       <c r="E30" s="152"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I31" s="161"/>
       <c r="J31" s="161"/>
       <c r="N31" s="154"/>
@@ -25271,7 +25277,7 @@
       <c r="AA31" s="152"/>
       <c r="AB31" s="152"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I32" s="161"/>
       <c r="J32" s="161"/>
       <c r="N32" s="154"/>
@@ -25283,7 +25289,7 @@
       <c r="AA32" s="152"/>
       <c r="AB32" s="152"/>
     </row>
-    <row r="33" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I33" s="161"/>
       <c r="J33" s="161"/>
       <c r="N33" s="154"/>
@@ -25295,7 +25301,7 @@
       <c r="AA33" s="152"/>
       <c r="AB33" s="152"/>
     </row>
-    <row r="34" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I34" s="161"/>
       <c r="J34" s="161"/>
       <c r="N34" s="154"/>
@@ -25307,7 +25313,7 @@
       <c r="AA34" s="152"/>
       <c r="AB34" s="152"/>
     </row>
-    <row r="35" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I35" s="161"/>
       <c r="J35" s="161"/>
       <c r="N35" s="154"/>
@@ -25319,7 +25325,7 @@
       <c r="AA35" s="152"/>
       <c r="AB35" s="152"/>
     </row>
-    <row r="37" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I37" s="161"/>
       <c r="J37" s="161"/>
       <c r="N37" s="154"/>
@@ -25331,7 +25337,7 @@
       <c r="AA37" s="152"/>
       <c r="AB37" s="152"/>
     </row>
-    <row r="38" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I38" s="161"/>
       <c r="J38" s="161"/>
       <c r="N38" s="154"/>
@@ -25343,7 +25349,7 @@
       <c r="AA38" s="152"/>
       <c r="AB38" s="152"/>
     </row>
-    <row r="39" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I39" s="161"/>
       <c r="J39" s="161"/>
       <c r="N39" s="154"/>
@@ -25355,7 +25361,7 @@
       <c r="AA39" s="152"/>
       <c r="AB39" s="152"/>
     </row>
-    <row r="40" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I40" s="161"/>
       <c r="J40" s="161"/>
       <c r="N40" s="154"/>
@@ -25367,7 +25373,7 @@
       <c r="AA40" s="152"/>
       <c r="AB40" s="152"/>
     </row>
-    <row r="41" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I41" s="161"/>
       <c r="J41" s="161"/>
       <c r="N41" s="154"/>
@@ -25379,36 +25385,36 @@
       <c r="AA41" s="152"/>
       <c r="AB41" s="152"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" s="154"/>
       <c r="E51" s="154"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="162"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="162"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="162"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="162"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="162"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="162"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="162"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="154"/>
       <c r="E59" s="154"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="154"/>
       <c r="E60" s="154"/>
     </row>

--- a/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F584078-2169-404B-B0B0-039E13BBD0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB2B36-AB7B-4433-9DD2-3298B98957C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -11444,11 +11444,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.56117</cdr:x>
+      <cdr:x>0.55975</cdr:x>
       <cdr:y>0.18727</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.56117</cdr:x>
+      <cdr:x>0.55975</cdr:x>
       <cdr:y>0.82463</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -11464,8 +11464,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3017872" y="398487"/>
-          <a:ext cx="0" cy="1356221"/>
+          <a:off x="3010995" y="400018"/>
+          <a:ext cx="0" cy="1361434"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -17170,8 +17170,8 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="S2" sqref="B1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19388,7 +19388,9 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20927,19 +20929,19 @@
   </sheetPr>
   <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="38" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="36" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="36" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="38" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="38" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="7.6640625" style="36" customWidth="1"/>
     <col min="13" max="14" width="11.44140625" style="36" customWidth="1"/>
     <col min="15" max="16" width="8.6640625" style="36" customWidth="1"/>
@@ -20952,18 +20954,18 @@
     <col min="26" max="26" width="11.44140625" style="39" customWidth="1"/>
     <col min="27" max="27" width="9.6640625" style="39" customWidth="1"/>
     <col min="28" max="28" width="11.44140625" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.6640625" style="36" customWidth="1"/>
-    <col min="31" max="32" width="11.44140625" style="36" customWidth="1"/>
-    <col min="33" max="34" width="8.6640625" style="36" customWidth="1"/>
-    <col min="35" max="35" width="11.44140625" style="39" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" style="39" customWidth="1"/>
-    <col min="37" max="37" width="11.44140625" style="39" customWidth="1"/>
-    <col min="38" max="39" width="7.6640625" style="36" customWidth="1"/>
-    <col min="40" max="41" width="11.44140625" style="36" customWidth="1"/>
-    <col min="42" max="43" width="8.6640625" style="36" customWidth="1"/>
-    <col min="44" max="44" width="11.44140625" style="39" customWidth="1"/>
-    <col min="45" max="45" width="9.6640625" style="39" customWidth="1"/>
-    <col min="46" max="46" width="11.44140625" style="39" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="36" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="36" hidden="1" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="36" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="39" hidden="1" customWidth="1"/>
     <col min="47" max="48" width="7.6640625" style="36" customWidth="1"/>
     <col min="49" max="50" width="11.44140625" style="36" customWidth="1"/>
     <col min="51" max="52" width="8.6640625" style="36" customWidth="1"/>
@@ -21490,12 +21492,12 @@
         <v>p&lt;0.05</v>
       </c>
       <c r="BD3" s="76">
-        <f>'B0 Mode'!AL5</f>
-        <v>0.17466812353421701</v>
+        <f>'B0 Mode'!AL3</f>
+        <v>0.57100300904639401</v>
       </c>
       <c r="BE3" s="76">
-        <f>'B0 Mode'!AM5</f>
-        <v>0.75811726098251697</v>
+        <f>'B0 Mode'!AM3</f>
+        <v>0.94866893302210198</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21718,13 +21720,13 @@
         <f>[13]LME_Phonetic_PA_h_f0_b1!K13</f>
         <v>0</v>
       </c>
-      <c r="BD4" s="73" t="str">
-        <f>'B0 Mode'!AL6</f>
-        <v xml:space="preserve">R2m </v>
-      </c>
-      <c r="BE4" s="73" t="str">
-        <f>'B0 Mode'!AM6</f>
-        <v xml:space="preserve">R2c </v>
+      <c r="BD4" s="73">
+        <f>'B0 Mode'!AL4</f>
+        <v>0.552454603767916</v>
+      </c>
+      <c r="BE4" s="73">
+        <f>'B0 Mode'!AM4</f>
+        <v>0.92286814836732001</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21948,12 +21950,12 @@
         <v>0</v>
       </c>
       <c r="BD5" s="84">
-        <f>'B0 Mode'!AL7</f>
-        <v>0.60597613939671302</v>
+        <f>'B0 Mode'!AL5</f>
+        <v>0.17466812353421701</v>
       </c>
       <c r="BE5" s="84">
-        <f>'B0 Mode'!AM7</f>
-        <v>0.76116509330383497</v>
+        <f>'B0 Mode'!AM5</f>
+        <v>0.75811726098251697</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22176,13 +22178,13 @@
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="BD6" s="105">
-        <f>'B0 Mode'!AL8</f>
-        <v>0.305251914676753</v>
-      </c>
-      <c r="BE6" s="105">
-        <f>'B0 Mode'!AM8</f>
-        <v>0.84325397172528904</v>
+      <c r="BD6" s="105" t="str">
+        <f>'B0 Mode'!AL6</f>
+        <v xml:space="preserve">R2m </v>
+      </c>
+      <c r="BE6" s="105" t="str">
+        <f>'B0 Mode'!AM6</f>
+        <v xml:space="preserve">R2c </v>
       </c>
     </row>
     <row r="7" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22405,13 +22407,13 @@
         <f>[15]LME_Phonetic_PA_l_t_b1!K13</f>
         <v>0</v>
       </c>
-      <c r="BD7" s="76" t="str">
-        <f>'B0 Mode'!AL9</f>
-        <v xml:space="preserve">R2m </v>
-      </c>
-      <c r="BE7" s="76" t="str">
-        <f>'B0 Mode'!AM9</f>
-        <v xml:space="preserve">R2c </v>
+      <c r="BD7" s="76">
+        <f>'B0 Mode'!AL7</f>
+        <v>0.60597613939671302</v>
+      </c>
+      <c r="BE7" s="76">
+        <f>'B0 Mode'!AM7</f>
+        <v>0.76116509330383497</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22635,12 +22637,12 @@
         <v>0</v>
       </c>
       <c r="BD8" s="84">
-        <f>'B0 Mode'!AL10</f>
-        <v>0.17466812353421701</v>
+        <f>'B0 Mode'!AL8</f>
+        <v>0.305251914676753</v>
       </c>
       <c r="BE8" s="84">
-        <f>'B0 Mode'!AM10</f>
-        <v>0.75811726098251697</v>
+        <f>'B0 Mode'!AM8</f>
+        <v>0.84325397172528904</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22863,13 +22865,13 @@
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="BD9" s="105">
-        <f>'B0 Mode'!AL11</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="105">
-        <f>'B0 Mode'!AM11</f>
-        <v>0</v>
+      <c r="BD9" s="105" t="str">
+        <f>'B0 Mode'!AL9</f>
+        <v xml:space="preserve">R2m </v>
+      </c>
+      <c r="BE9" s="105" t="str">
+        <f>'B0 Mode'!AM9</f>
+        <v xml:space="preserve">R2c </v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -23093,12 +23095,12 @@
         <v>p&lt;0.05</v>
       </c>
       <c r="BD10" s="25">
-        <f>'B0 Mode'!AL12</f>
-        <v>0</v>
+        <f>'B0 Mode'!AL10</f>
+        <v>0.17466812353421701</v>
       </c>
       <c r="BE10" s="25">
-        <f>'B0 Mode'!AM12</f>
-        <v>0</v>
+        <f>'B0 Mode'!AM10</f>
+        <v>0.75811726098251697</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
@@ -23154,7 +23156,7 @@
   <dimension ref="G5:AB33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Mode AND Nuc PA Phonetic Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB2B36-AB7B-4433-9DD2-3298B98957C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB7E7A-0A0E-4CA1-A4D7-7E7AAA88F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -20929,8 +20929,8 @@
   </sheetPr>
   <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23155,7 +23155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
